--- a/lessons.xlsx
+++ b/lessons.xlsx
@@ -12,7 +12,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+  <si>
+    <t>Name of course</t>
+  </si>
+  <si>
+    <t>Day of Week</t>
+  </si>
+  <si>
+    <t>Local Time</t>
+  </si>
+  <si>
+    <t>Number of hours</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
   <si>
     <t>Java basics</t>
   </si>
@@ -68,7 +83,7 @@
     <t>21/06/2019</t>
   </si>
   <si>
-    <t>Total:</t>
+    <t>Total hours:</t>
   </si>
 </sst>
 </file>
@@ -120,124 +135,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:E8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="27.08203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.00390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.6953125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="2.19921875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="12.23828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="18.65234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.46875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="25.046875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="15.29296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D8" t="n">
         <f>SUM(D2:D7)</f>
